--- a/REGULAR/OJT/BORJA, EDWIN.xlsx
+++ b/REGULAR/OJT/BORJA, EDWIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9CD47A-A633-47CA-8514-8C5D7C9EA09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="162">
   <si>
     <t>PERIOD</t>
   </si>
@@ -515,12 +514,18 @@
   </si>
   <si>
     <t>7/11,21/2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>8/2,3/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1402,7 +1407,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1445,7 +1450,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1514,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1574,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1640,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1703,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,7 +1801,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1860,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,7 +1925,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1968,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2043,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2229,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2295,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2353,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2419,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2475,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2550,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2593,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2659,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2715,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2813,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2876,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2920,7 +2925,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2937,25 +2942,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K309" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K310" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2967,13 +2972,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2982,14 +2987,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3293,7 +3298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3303,7 +3308,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3311,34 +3316,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K309"/>
+  <dimension ref="A2:K310"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A298" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A301" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D304" sqref="D304"/>
+      <selection pane="bottomLeft" activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3359,7 +3364,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3377,7 +3382,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3399,7 +3404,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3407,7 +3412,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3420,7 +3425,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -3437,7 +3442,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3481,7 +3486,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>173.58199999999999</v>
+        <v>171.58199999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3496,7 +3501,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3518,7 +3523,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>37653</v>
       </c>
@@ -3538,7 +3543,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>37681</v>
@@ -3559,7 +3564,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A20" si="0">EDATE(A12,1)</f>
         <v>37712</v>
@@ -3580,7 +3585,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>37742</v>
@@ -3601,7 +3606,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3622,7 +3627,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f>EDATE(A15,1)</f>
         <v>37803</v>
@@ -3643,7 +3648,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3664,7 +3669,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3685,7 +3690,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>37895</v>
@@ -3706,7 +3711,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>37926</v>
@@ -3727,7 +3732,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f>EDATE(A20,1)</f>
         <v>37956</v>
@@ -3748,7 +3753,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>44</v>
       </c>
@@ -3766,7 +3771,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>37987</v>
       </c>
@@ -3786,7 +3791,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>38018</v>
@@ -3811,7 +3816,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" ref="A25:A34" si="1">EDATE(A24,1)</f>
         <v>38047</v>
@@ -3832,7 +3837,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -3853,7 +3858,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -3874,7 +3879,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -3899,7 +3904,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>46</v>
@@ -3923,7 +3928,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A28,1)</f>
         <v>38169</v>
@@ -3944,7 +3949,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -3965,7 +3970,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -3986,7 +3991,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>38261</v>
@@ -4007,7 +4012,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -4034,7 +4039,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>48</v>
@@ -4056,7 +4061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f>EDATE(A34,1)</f>
         <v>38322</v>
@@ -4077,7 +4082,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>51</v>
       </c>
@@ -4095,7 +4100,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>38353</v>
       </c>
@@ -4115,7 +4120,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>38384</v>
@@ -4136,7 +4141,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" ref="A40:A49" si="2">EDATE(A39,1)</f>
         <v>38412</v>
@@ -4157,7 +4162,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -4178,7 +4183,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>38473</v>
@@ -4199,7 +4204,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -4220,7 +4225,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -4241,7 +4246,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -4266,7 +4271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>38596</v>
@@ -4291,7 +4296,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38626</v>
@@ -4312,7 +4317,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -4333,7 +4338,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" si="2"/>
         <v>38687</v>
@@ -4354,7 +4359,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>54</v>
       </c>
@@ -4372,7 +4377,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>38718</v>
       </c>
@@ -4392,7 +4397,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>38749</v>
@@ -4413,7 +4418,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" ref="A53:A62" si="3">EDATE(A52,1)</f>
         <v>38777</v>
@@ -4434,7 +4439,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>38808</v>
@@ -4455,7 +4460,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>38838</v>
@@ -4476,7 +4481,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="3"/>
         <v>38869</v>
@@ -4497,7 +4502,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -4518,7 +4523,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>38930</v>
@@ -4539,7 +4544,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>38961</v>
@@ -4560,7 +4565,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>38991</v>
@@ -4581,7 +4586,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -4602,7 +4607,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>39052</v>
@@ -4627,7 +4632,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>55</v>
       </c>
@@ -4645,7 +4650,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>39083</v>
       </c>
@@ -4669,7 +4674,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f>EDATE(A64,1)</f>
         <v>39114</v>
@@ -4694,7 +4699,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" ref="A66:A75" si="4">EDATE(A65,1)</f>
         <v>39142</v>
@@ -4715,7 +4720,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="4"/>
         <v>39173</v>
@@ -4736,7 +4741,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="4"/>
         <v>39203</v>
@@ -4757,7 +4762,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -4782,7 +4787,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -4807,7 +4812,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="4"/>
         <v>39295</v>
@@ -4832,7 +4837,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="4"/>
         <v>39326</v>
@@ -4853,7 +4858,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -4880,7 +4885,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="4"/>
         <v>39387</v>
@@ -4901,7 +4906,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="4"/>
         <v>39417</v>
@@ -4926,7 +4931,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>63</v>
       </c>
@@ -4944,7 +4949,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>39448</v>
       </c>
@@ -4964,7 +4969,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A77,1)</f>
         <v>39479</v>
@@ -4991,7 +4996,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" ref="A79:A90" si="5">EDATE(A78,1)</f>
         <v>39508</v>
@@ -5012,7 +5017,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="5"/>
         <v>39539</v>
@@ -5033,7 +5038,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -5058,7 +5063,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>68</v>
@@ -5080,7 +5085,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39600</v>
@@ -5105,7 +5110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5123,7 +5128,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A83,1)</f>
         <v>39630</v>
@@ -5144,7 +5149,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="5"/>
         <v>39661</v>
@@ -5165,7 +5170,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -5190,7 +5195,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13">
@@ -5208,7 +5213,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>39722</v>
@@ -5229,7 +5234,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="5"/>
         <v>39753</v>
@@ -5256,7 +5261,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>62</v>
@@ -5276,7 +5281,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>39783</v>
@@ -5297,7 +5302,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>74</v>
       </c>
@@ -5315,7 +5320,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>39814</v>
       </c>
@@ -5335,7 +5340,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A94,1)</f>
         <v>39845</v>
@@ -5362,7 +5367,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" ref="A96:A105" si="6">EDATE(A95,1)</f>
         <v>39873</v>
@@ -5389,7 +5394,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="6"/>
         <v>39904</v>
@@ -5414,7 +5419,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -5435,7 +5440,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -5462,7 +5467,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -5483,7 +5488,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -5504,7 +5509,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -5525,7 +5530,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -5546,7 +5551,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -5571,7 +5576,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="6"/>
         <v>40148</v>
@@ -5596,7 +5601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>82</v>
       </c>
@@ -5614,7 +5619,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>40179</v>
       </c>
@@ -5634,7 +5639,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f>EDATE(A107,1)</f>
         <v>40210</v>
@@ -5655,7 +5660,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" ref="A109:A121" si="7">EDATE(A108,1)</f>
         <v>40238</v>
@@ -5682,7 +5687,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="7"/>
         <v>40269</v>
@@ -5703,7 +5708,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="7"/>
         <v>40299</v>
@@ -5730,7 +5735,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>62</v>
@@ -5750,7 +5755,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>40330</v>
@@ -5771,7 +5776,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="7"/>
         <v>40360</v>
@@ -5798,7 +5803,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>46</v>
@@ -5820,7 +5825,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>45</v>
@@ -5842,7 +5847,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A114,1)</f>
         <v>40391</v>
@@ -5863,7 +5868,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="7"/>
         <v>40422</v>
@@ -5890,7 +5895,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="7"/>
         <v>40452</v>
@@ -5917,7 +5922,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>40483</v>
@@ -5942,7 +5947,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="7"/>
         <v>40513</v>
@@ -5963,7 +5968,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>88</v>
       </c>
@@ -5981,7 +5986,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>40544</v>
       </c>
@@ -6001,7 +6006,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A123,1)</f>
         <v>40575</v>
@@ -6028,7 +6033,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>70</v>
@@ -6050,7 +6055,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>70</v>
@@ -6072,7 +6077,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f>EDATE(A124,1)</f>
         <v>40603</v>
@@ -6099,7 +6104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" ref="A128:A137" si="8">EDATE(A127,1)</f>
         <v>40634</v>
@@ -6120,7 +6125,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="8"/>
         <v>40664</v>
@@ -6141,7 +6146,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="8"/>
         <v>40695</v>
@@ -6166,7 +6171,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="8"/>
         <v>40725</v>
@@ -6191,7 +6196,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -6212,7 +6217,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -6233,7 +6238,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="8"/>
         <v>40817</v>
@@ -6260,7 +6265,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>62</v>
@@ -6280,7 +6285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>40848</v>
@@ -6301,7 +6306,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="8"/>
         <v>40878</v>
@@ -6322,7 +6327,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="48" t="s">
         <v>96</v>
       </c>
@@ -6340,7 +6345,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>40909</v>
       </c>
@@ -6360,7 +6365,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f>EDATE(A139,1)</f>
         <v>40940</v>
@@ -6381,7 +6386,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" ref="A141:A149" si="9">EDATE(A140,1)</f>
         <v>40969</v>
@@ -6402,7 +6407,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="9"/>
         <v>41000</v>
@@ -6423,7 +6428,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="9"/>
         <v>41030</v>
@@ -6444,7 +6449,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="9"/>
         <v>41061</v>
@@ -6465,7 +6470,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="9"/>
         <v>41091</v>
@@ -6486,7 +6491,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="9"/>
         <v>41122</v>
@@ -6507,7 +6512,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="9"/>
         <v>41153</v>
@@ -6528,7 +6533,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="9"/>
         <v>41183</v>
@@ -6549,7 +6554,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="9"/>
         <v>41214</v>
@@ -6570,7 +6575,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A149,1)</f>
         <v>41244</v>
@@ -6595,7 +6600,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
         <v>97</v>
       </c>
@@ -6613,7 +6618,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>41275</v>
       </c>
@@ -6639,7 +6644,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f>EDATE(A152,1)</f>
         <v>41306</v>
@@ -6666,7 +6671,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" ref="A154:A166" si="10">EDATE(A153,1)</f>
         <v>41334</v>
@@ -6687,7 +6692,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="10"/>
         <v>41365</v>
@@ -6714,7 +6719,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f t="shared" si="10"/>
         <v>41395</v>
@@ -6741,7 +6746,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f t="shared" si="10"/>
         <v>41426</v>
@@ -6768,7 +6773,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>62</v>
@@ -6788,7 +6793,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A157,1)</f>
         <v>41456</v>
@@ -6809,7 +6814,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -6830,7 +6835,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -6857,7 +6862,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>46</v>
@@ -6879,7 +6884,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f>EDATE(A161,1)</f>
         <v>41548</v>
@@ -6904,7 +6909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>45</v>
@@ -6924,7 +6929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A163,1)</f>
         <v>41579</v>
@@ -6945,7 +6950,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -6966,7 +6971,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="53" t="s">
         <v>101</v>
       </c>
@@ -6984,7 +6989,7 @@
       <c r="J167" s="12"/>
       <c r="K167" s="15"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>41640</v>
       </c>
@@ -7008,7 +7013,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f>EDATE(A168,1)</f>
         <v>41671</v>
@@ -7033,7 +7038,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>70</v>
@@ -7055,7 +7060,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>41699</v>
@@ -7082,7 +7087,7 @@
         <v>46447</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" ref="A172:A179" si="11">EDATE(A171,1)</f>
         <v>41730</v>
@@ -7109,7 +7114,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="11"/>
         <v>41760</v>
@@ -7130,7 +7135,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f t="shared" si="11"/>
         <v>41791</v>
@@ -7151,7 +7156,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f t="shared" si="11"/>
         <v>41821</v>
@@ -7172,7 +7177,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f t="shared" si="11"/>
         <v>41852</v>
@@ -7193,7 +7198,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="11"/>
         <v>41883</v>
@@ -7214,7 +7219,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="11"/>
         <v>41913</v>
@@ -7235,7 +7240,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="11"/>
         <v>41944</v>
@@ -7262,7 +7267,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>76</v>
@@ -7281,7 +7286,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A179,1)</f>
         <v>41974</v>
@@ -7306,7 +7311,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="48" t="s">
         <v>108</v>
       </c>
@@ -7324,7 +7329,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>42005</v>
       </c>
@@ -7350,7 +7355,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f>EDATE(A183,1)</f>
         <v>42036</v>
@@ -7377,7 +7382,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" ref="A185:A194" si="12">EDATE(A184,1)</f>
         <v>42064</v>
@@ -7398,7 +7403,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" si="12"/>
         <v>42095</v>
@@ -7419,7 +7424,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="12"/>
         <v>42125</v>
@@ -7444,7 +7449,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="12"/>
         <v>42156</v>
@@ -7465,7 +7470,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="12"/>
         <v>42186</v>
@@ -7492,7 +7497,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="12"/>
         <v>42217</v>
@@ -7513,7 +7518,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="12"/>
         <v>42248</v>
@@ -7534,7 +7539,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="12"/>
         <v>42278</v>
@@ -7561,7 +7566,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A192,1)</f>
         <v>42309</v>
@@ -7582,7 +7587,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="12"/>
         <v>42339</v>
@@ -7603,7 +7608,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="48" t="s">
         <v>113</v>
       </c>
@@ -7621,7 +7626,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>42370</v>
       </c>
@@ -7641,7 +7646,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A196,1)</f>
         <v>42401</v>
@@ -7662,7 +7667,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" ref="A198:A203" si="13">EDATE(A197,1)</f>
         <v>42430</v>
@@ -7683,7 +7688,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="13"/>
         <v>42461</v>
@@ -7704,7 +7709,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="13"/>
         <v>42491</v>
@@ -7725,7 +7730,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="13"/>
         <v>42522</v>
@@ -7746,7 +7751,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f t="shared" si="13"/>
         <v>42552</v>
@@ -7771,7 +7776,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f t="shared" si="13"/>
         <v>42583</v>
@@ -7796,7 +7801,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>46</v>
@@ -7816,7 +7821,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A203,1)</f>
         <v>42614</v>
@@ -7837,7 +7842,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f>EDATE(A205,1)</f>
         <v>42644</v>
@@ -7858,7 +7863,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" ref="A207:A208" si="14">EDATE(A206,1)</f>
         <v>42675</v>
@@ -7885,7 +7890,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="14"/>
         <v>42705</v>
@@ -7910,7 +7915,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="48" t="s">
         <v>116</v>
       </c>
@@ -7928,7 +7933,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>42736</v>
       </c>
@@ -7948,7 +7953,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A210,1)</f>
         <v>42767</v>
@@ -7975,7 +7980,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" ref="A212:A220" si="15">EDATE(A211,1)</f>
         <v>42795</v>
@@ -7996,7 +8001,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="15"/>
         <v>42826</v>
@@ -8017,7 +8022,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="15"/>
         <v>42856</v>
@@ -8038,7 +8043,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="15"/>
         <v>42887</v>
@@ -8059,7 +8064,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="15"/>
         <v>42917</v>
@@ -8086,7 +8091,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>70</v>
@@ -8108,7 +8113,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A216,1)</f>
         <v>42948</v>
@@ -8129,7 +8134,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" si="15"/>
         <v>42979</v>
@@ -8150,7 +8155,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="15"/>
         <v>43009</v>
@@ -8171,7 +8176,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f>EDATE(A220,1)</f>
         <v>43040</v>
@@ -8198,7 +8203,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>64</v>
@@ -8217,7 +8222,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>62</v>
@@ -8234,7 +8239,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f>EDATE(A221,1)</f>
         <v>43070</v>
@@ -8255,7 +8260,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="48" t="s">
         <v>122</v>
       </c>
@@ -8273,7 +8278,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>43101</v>
       </c>
@@ -8299,7 +8304,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f>EDATE(A226,1)</f>
         <v>43132</v>
@@ -8320,7 +8325,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" ref="A228:A238" si="16">EDATE(A227,1)</f>
         <v>43160</v>
@@ -8347,7 +8352,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f t="shared" si="16"/>
         <v>43191</v>
@@ -8374,7 +8379,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="16"/>
         <v>43221</v>
@@ -8395,7 +8400,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="16"/>
         <v>43252</v>
@@ -8420,7 +8425,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>46</v>
@@ -8440,7 +8445,7 @@
         <v>45809</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A231,1)</f>
         <v>43282</v>
@@ -8467,7 +8472,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" si="16"/>
         <v>43313</v>
@@ -8488,7 +8493,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="16"/>
         <v>43344</v>
@@ -8509,7 +8514,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="16"/>
         <v>43374</v>
@@ -8530,7 +8535,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="16"/>
         <v>43405</v>
@@ -8551,7 +8556,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="16"/>
         <v>43435</v>
@@ -8578,7 +8583,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="41"/>
       <c r="B239" s="15" t="s">
         <v>64</v>
@@ -8600,7 +8605,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="48" t="s">
         <v>127</v>
       </c>
@@ -8618,7 +8623,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>43466</v>
       </c>
@@ -8638,7 +8643,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f>EDATE(A241,1)</f>
         <v>43497</v>
@@ -8659,7 +8664,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" ref="A243:A253" si="17">EDATE(A242,1)</f>
         <v>43525</v>
@@ -8680,7 +8685,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="17"/>
         <v>43556</v>
@@ -8707,7 +8712,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="17"/>
         <v>43586</v>
@@ -8734,7 +8739,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>70</v>
@@ -8756,7 +8761,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f>EDATE(A245,1)</f>
         <v>43617</v>
@@ -8781,7 +8786,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="17"/>
         <v>43647</v>
@@ -8808,7 +8813,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="17"/>
         <v>43678</v>
@@ -8829,7 +8834,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="17"/>
         <v>43709</v>
@@ -8850,7 +8855,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="17"/>
         <v>43739</v>
@@ -8877,7 +8882,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A251,1)</f>
         <v>43770</v>
@@ -8898,7 +8903,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="17"/>
         <v>43800</v>
@@ -8925,7 +8930,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>62</v>
@@ -8945,7 +8950,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>64</v>
@@ -8967,7 +8972,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="48" t="s">
         <v>135</v>
       </c>
@@ -8985,7 +8990,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>43831</v>
       </c>
@@ -9009,7 +9014,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>70</v>
@@ -9031,7 +9036,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f>EDATE(A257,1)</f>
         <v>43862</v>
@@ -9052,7 +9057,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" ref="A260:A269" si="18">EDATE(A259,1)</f>
         <v>43891</v>
@@ -9073,7 +9078,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="18"/>
         <v>43922</v>
@@ -9094,7 +9099,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f t="shared" si="18"/>
         <v>43952</v>
@@ -9115,7 +9120,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f t="shared" si="18"/>
         <v>43983</v>
@@ -9136,7 +9141,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f t="shared" si="18"/>
         <v>44013</v>
@@ -9163,7 +9168,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" si="18"/>
         <v>44044</v>
@@ -9184,7 +9189,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="18"/>
         <v>44075</v>
@@ -9211,7 +9216,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="18"/>
         <v>44105</v>
@@ -9232,7 +9237,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" si="18"/>
         <v>44136</v>
@@ -9253,7 +9258,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" si="18"/>
         <v>44166</v>
@@ -9274,7 +9279,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="48" t="s">
         <v>141</v>
       </c>
@@ -9292,7 +9297,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="41">
         <v>44197</v>
       </c>
@@ -9312,7 +9317,7 @@
       <c r="J271" s="12"/>
       <c r="K271" s="15"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A271,1)</f>
         <v>44228</v>
@@ -9333,7 +9338,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" ref="A273:A283" si="19">EDATE(A272,1)</f>
         <v>44256</v>
@@ -9354,7 +9359,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="19"/>
         <v>44287</v>
@@ -9375,7 +9380,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="19"/>
         <v>44317</v>
@@ -9396,7 +9401,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f t="shared" si="19"/>
         <v>44348</v>
@@ -9417,7 +9422,7 @@
       <c r="J276" s="12"/>
       <c r="K276" s="15"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="19"/>
         <v>44378</v>
@@ -9438,7 +9443,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="19"/>
         <v>44409</v>
@@ -9463,7 +9468,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f t="shared" si="19"/>
         <v>44440</v>
@@ -9484,7 +9489,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f t="shared" si="19"/>
         <v>44470</v>
@@ -9511,7 +9516,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>62</v>
@@ -9531,7 +9536,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>44501</v>
@@ -9552,7 +9557,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="19"/>
         <v>44531</v>
@@ -9573,7 +9578,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="48" t="s">
         <v>145</v>
       </c>
@@ -9591,7 +9596,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>44562</v>
       </c>
@@ -9617,7 +9622,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A285,1)</f>
         <v>44593</v>
@@ -9638,7 +9643,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f t="shared" ref="A287:A294" si="20">EDATE(A286,1)</f>
         <v>44621</v>
@@ -9665,7 +9670,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f t="shared" si="20"/>
         <v>44652</v>
@@ -9686,7 +9691,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="20"/>
         <v>44682</v>
@@ -9713,7 +9718,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>147</v>
@@ -9735,7 +9740,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>62</v>
@@ -9755,7 +9760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f>EDATE(A289,1)</f>
         <v>44713</v>
@@ -9776,7 +9781,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="20"/>
         <v>44743</v>
@@ -9797,7 +9802,7 @@
       <c r="J293" s="12"/>
       <c r="K293" s="15"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="20"/>
         <v>44774</v>
@@ -9822,7 +9827,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>44805</v>
       </c>
@@ -9842,7 +9847,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>44835</v>
       </c>
@@ -9868,7 +9873,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>44866</v>
       </c>
@@ -9892,7 +9897,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>44896</v>
       </c>
@@ -9912,7 +9917,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="48" t="s">
         <v>151</v>
       </c>
@@ -9930,7 +9935,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>44927</v>
       </c>
@@ -9950,7 +9955,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>44958</v>
       </c>
@@ -9970,7 +9975,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>44986</v>
       </c>
@@ -9990,7 +9995,7 @@
       <c r="J302" s="12"/>
       <c r="K302" s="15"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>45017</v>
       </c>
@@ -10014,7 +10019,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>45047</v>
       </c>
@@ -10034,7 +10039,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>45078</v>
       </c>
@@ -10054,7 +10059,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>45108</v>
       </c>
@@ -10076,27 +10081,31 @@
         <v>159</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A307" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B307" s="20"/>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" s="40"/>
+      <c r="B307" s="20" t="s">
+        <v>160</v>
+      </c>
       <c r="C307" s="13"/>
-      <c r="D307" s="39"/>
+      <c r="D307" s="39">
+        <v>2</v>
+      </c>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="42" t="str">
+      <c r="G307" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H307" s="39"/>
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
-      <c r="K307" s="20"/>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K307" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -10112,9 +10121,9 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -10129,6 +10138,24 @@
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B310" s="20"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="39"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="20"/>
+      <c r="G310" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H310" s="39"/>
+      <c r="I310" s="9"/>
+      <c r="J310" s="11"/>
+      <c r="K310" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10145,10 +10172,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10171,7 +10198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -10179,21 +10206,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -10206,7 +10233,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10235,7 +10262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.167</v>
       </c>
@@ -10265,17 +10292,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10296,7 +10323,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10323,7 +10350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10349,7 +10376,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10375,7 +10402,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10401,7 +10428,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10427,7 +10454,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10453,7 +10480,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10479,7 +10506,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10505,7 +10532,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10525,7 +10552,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10545,7 +10572,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10565,7 +10592,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10586,7 +10613,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10607,7 +10634,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10628,7 +10655,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10649,7 +10676,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10670,7 +10697,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10691,7 +10718,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10712,7 +10739,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10733,7 +10760,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10754,7 +10781,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10775,7 +10802,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10796,7 +10823,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10817,7 +10844,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10838,7 +10865,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10859,7 +10886,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10880,7 +10907,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10901,7 +10928,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10922,7 +10949,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10943,7 +10970,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10964,7 +10991,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10985,7 +11012,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10994,7 +11021,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11003,7 +11030,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11012,7 +11039,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11021,7 +11048,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11030,7 +11057,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11039,7 +11066,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11048,7 +11075,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11057,7 +11084,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11066,7 +11093,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11075,7 +11102,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11084,7 +11111,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11093,7 +11120,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11102,7 +11129,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11111,7 +11138,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11120,7 +11147,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11129,7 +11156,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11138,7 +11165,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11147,7 +11174,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11156,7 +11183,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11165,7 +11192,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11174,7 +11201,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11183,7 +11210,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11192,7 +11219,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11201,7 +11228,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11210,7 +11237,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11219,7 +11246,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11228,7 +11255,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11237,7 +11264,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11246,7 +11273,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
